--- a/target/classes/com/bridgelabz/keyword/scenarios/HubSpot.xlsx
+++ b/target/classes/com/bridgelabz/keyword/scenarios/HubSpot.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" state="visible" r:id="rId2"/>
@@ -257,7 +257,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -279,10 +279,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -390,15 +386,15 @@
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="35.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="26.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="1" width="14.43"/>
   </cols>
@@ -459,16 +455,16 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -476,19 +472,19 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -496,107 +492,107 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -621,111 +617,111 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.61"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
